--- a/predicted_procurement.xlsx
+++ b/predicted_procurement.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,50 +465,75 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>quarter</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>day_of_week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>day_of_month</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Price_source</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Price_Diff</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>lag_1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lag_2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lag_3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lag_4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lag_5</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>lag_6</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Price_source</t>
+          <t>lag_12</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_std</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>normalized_price</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>log_normalized_price</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Прогноз_цены</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Закупка_недель</t>
         </is>
@@ -531,18 +556,49 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43833.33333333334</v>
+      </c>
+      <c r="J2" t="n">
+        <v>351.8518518518518</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46000</v>
+      </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>46000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.4799844317778458</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.3920315686516748</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1869119703769684</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -562,20 +618,49 @@
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>46000</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>46000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>46000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>46000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>46000</v>
+      </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>46000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.4799844317778458</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.3920315686516748</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1869119703769684</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -595,25 +680,48 @@
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>46000</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>46000</v>
+      </c>
       <c r="M4" t="n">
         <v>46000</v>
       </c>
       <c r="N4" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O4" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4799844317778458</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3920315686516748</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1761636584997177</v>
+      </c>
+      <c r="T4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,27 +742,48 @@
         <v>26</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>46000</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
         <v>46000</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>-500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>46000</v>
+      </c>
       <c r="M5" t="n">
         <v>46000</v>
       </c>
       <c r="N5" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O5" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>288.6751345948139</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3428460226984613</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2947912592171265</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.1714940816164017</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -675,29 +804,48 @@
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
         <v>45500</v>
       </c>
-      <c r="H6" t="n">
-        <v>46000</v>
-      </c>
-      <c r="I6" t="n">
-        <v>46000</v>
-      </c>
       <c r="J6" t="n">
-        <v>46000</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>45500</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46000</v>
+      </c>
       <c r="M6" t="n">
         <v>46000</v>
       </c>
       <c r="N6" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O6" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>288.6751345948139</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3428460226984613</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2947912592171265</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.1869119703769684</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -718,31 +866,48 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
         <v>45500</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
+        <v>-500</v>
+      </c>
+      <c r="K7" t="n">
         <v>45500</v>
       </c>
-      <c r="I7" t="n">
-        <v>46000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>46000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>46000</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>45500</v>
+      </c>
       <c r="M7" t="n">
-        <v>45500</v>
+        <v>46000</v>
       </c>
       <c r="N7" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O7" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>288.6751345948139</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2057076136190767</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1870666258089874</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1869119703769684</v>
+      </c>
+      <c r="T7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,33 +928,48 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+      <c r="I8" t="n">
         <v>45000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>45000</v>
+      </c>
+      <c r="L8" t="n">
         <v>45500</v>
-      </c>
-      <c r="I8" t="n">
-        <v>45500</v>
-      </c>
-      <c r="J8" t="n">
-        <v>46000</v>
-      </c>
-      <c r="K8" t="n">
-        <v>46000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>46000</v>
       </c>
       <c r="M8" t="n">
         <v>45500</v>
       </c>
       <c r="N8" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O8" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>763.7626158259749</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.06856920453969226</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.06632056161578442</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.2458010762929916</v>
+      </c>
+      <c r="T8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -810,33 +990,48 @@
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" t="n">
         <v>44000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>44000</v>
+      </c>
+      <c r="L9" t="n">
         <v>45000</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>45500</v>
       </c>
-      <c r="J9" t="n">
-        <v>45500</v>
-      </c>
-      <c r="K9" t="n">
-        <v>46000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>46000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>45000</v>
-      </c>
       <c r="N9" t="n">
-        <v>10.8802599836342</v>
+        <v>46000</v>
       </c>
       <c r="O9" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1000.000000000002</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3428460226984613</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2947912592171265</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2411314994096756</v>
+      </c>
+      <c r="T9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -857,33 +1052,48 @@
         <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>31</v>
+      </c>
+      <c r="I10" t="n">
         <v>43000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43000</v>
+      </c>
+      <c r="L10" t="n">
         <v>44000</v>
       </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>45000</v>
       </c>
-      <c r="J10" t="n">
-        <v>45500</v>
-      </c>
-      <c r="K10" t="n">
-        <v>45500</v>
-      </c>
-      <c r="L10" t="n">
-        <v>46000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>44000</v>
-      </c>
       <c r="N10" t="n">
-        <v>10.87370964743086</v>
+        <v>46000</v>
       </c>
       <c r="O10" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1000.000000000002</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.6171228408572302</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.4806485460813375</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.2519674897193909</v>
+      </c>
+      <c r="T10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -904,33 +1114,48 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
         <v>42000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
+        <v>-500</v>
+      </c>
+      <c r="K11" t="n">
+        <v>42000</v>
+      </c>
+      <c r="L11" t="n">
         <v>43000</v>
       </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>44000</v>
       </c>
-      <c r="J11" t="n">
-        <v>45000</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="N11" t="n">
         <v>45500</v>
       </c>
-      <c r="L11" t="n">
-        <v>45500</v>
-      </c>
-      <c r="M11" t="n">
-        <v>43000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10.86029332460328</v>
-      </c>
       <c r="O11" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>763.7626158259749</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.7542612499366148</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.562047828090573</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.274363100528717</v>
+      </c>
+      <c r="T11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -951,33 +1176,48 @@
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14</v>
+      </c>
+      <c r="I12" t="n">
         <v>41500</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="K12" t="n">
+        <v>41500</v>
+      </c>
+      <c r="L12" t="n">
         <v>42000</v>
       </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
         <v>43000</v>
       </c>
-      <c r="J12" t="n">
-        <v>44000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>45000</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>45500</v>
       </c>
-      <c r="M12" t="n">
-        <v>42000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.82230143476054</v>
-      </c>
       <c r="O12" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>500.0000000000009</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.8913996590159993</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.637317115317985</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.2338955104351044</v>
+      </c>
+      <c r="T12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -998,33 +1238,48 @@
         <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
         <v>41000</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41000</v>
+      </c>
+      <c r="L13" t="n">
         <v>41500</v>
       </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>42000</v>
       </c>
-      <c r="J13" t="n">
-        <v>43000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>44000</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>45000</v>
       </c>
-      <c r="M13" t="n">
-        <v>41500</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10.82230143476054</v>
-      </c>
       <c r="O13" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>763.7626158259749</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-1.165676477174768</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.7727327732376172</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.26361483335495</v>
+      </c>
+      <c r="T13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1045,33 +1300,48 @@
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>28</v>
+      </c>
+      <c r="I14" t="n">
         <v>40000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>40000</v>
+      </c>
+      <c r="L14" t="n">
         <v>41000</v>
       </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>41500</v>
       </c>
-      <c r="J14" t="n">
-        <v>42000</v>
-      </c>
-      <c r="K14" t="n">
-        <v>43000</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>44000</v>
       </c>
-      <c r="M14" t="n">
-        <v>41000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10.82230143476054</v>
-      </c>
       <c r="O14" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>577.3502691896294</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-1.165676477174768</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.7727327732376172</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.2697812914848328</v>
+      </c>
+      <c r="T14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1092,33 +1362,48 @@
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
         <v>40000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
+        <v>500</v>
+      </c>
+      <c r="K15" t="n">
         <v>40000</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M15" t="n">
         <v>41000</v>
       </c>
-      <c r="J15" t="n">
-        <v>41500</v>
-      </c>
-      <c r="K15" t="n">
-        <v>42000</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>43000</v>
       </c>
-      <c r="M15" t="n">
-        <v>40000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10.80000408342829</v>
-      </c>
       <c r="O15" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>288.6751345948234</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-1.028538068095384</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.7073153701115837</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.2047257274389267</v>
+      </c>
+      <c r="T15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1139,33 +1424,48 @@
         <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
         <v>40500</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K16" t="n">
+        <v>40500</v>
+      </c>
+      <c r="L16" t="n">
         <v>40000</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40000</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41000</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41500</v>
-      </c>
-      <c r="L16" t="n">
-        <v>42000</v>
       </c>
       <c r="M16" t="n">
         <v>40000</v>
       </c>
       <c r="N16" t="n">
-        <v>10.80000408342829</v>
+        <v>42000</v>
       </c>
       <c r="O16" t="n">
+        <v>46000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>873.6894948054131</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.699405886304861</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.530278711336078</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.274363100528717</v>
+      </c>
+      <c r="T16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1186,33 +1486,48 @@
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19</v>
+      </c>
+      <c r="I17" t="n">
         <v>41700</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>41700</v>
+      </c>
+      <c r="L17" t="n">
         <v>40500</v>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
         <v>40000</v>
       </c>
-      <c r="J17" t="n">
-        <v>40000</v>
-      </c>
-      <c r="K17" t="n">
-        <v>41000</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>41500</v>
       </c>
-      <c r="M17" t="n">
-        <v>40500</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10.80752843185063</v>
-      </c>
       <c r="O17" t="n">
+        <v>45500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>692.8203230275534</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.699405886304861</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.530278711336078</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.26361483335495</v>
+      </c>
+      <c r="T17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1233,33 +1548,48 @@
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26</v>
+      </c>
+      <c r="I18" t="n">
         <v>41700</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
+        <v>800</v>
+      </c>
+      <c r="K18" t="n">
         <v>41700</v>
       </c>
-      <c r="I18" t="n">
+      <c r="L18" t="n">
+        <v>41700</v>
+      </c>
+      <c r="M18" t="n">
         <v>40500</v>
       </c>
-      <c r="J18" t="n">
-        <v>40000</v>
-      </c>
-      <c r="K18" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>41000</v>
       </c>
-      <c r="M18" t="n">
-        <v>41700</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10.82230143476054</v>
-      </c>
       <c r="O18" t="n">
+        <v>45500</v>
+      </c>
+      <c r="P18" t="n">
+        <v>461.8802153517053</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.4799844317778458</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.3920315686516748</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.2081708312034607</v>
+      </c>
+      <c r="T18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,30 +1613,45 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
         <v>42500</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
+        <v>200</v>
+      </c>
+      <c r="K19" t="n">
+        <v>42500</v>
+      </c>
+      <c r="L19" t="n">
         <v>41700</v>
-      </c>
-      <c r="I19" t="n">
-        <v>41700</v>
-      </c>
-      <c r="J19" t="n">
-        <v>40500</v>
-      </c>
-      <c r="K19" t="n">
-        <v>40000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>40000</v>
       </c>
       <c r="M19" t="n">
         <v>41700</v>
       </c>
       <c r="N19" t="n">
-        <v>10.82230143476054</v>
+        <v>40000</v>
       </c>
       <c r="O19" t="n">
+        <v>45000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>529.1502622129227</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.425129068146092</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.3542623837566327</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-0.2577934563159943</v>
+      </c>
+      <c r="T19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1327,33 +1672,48 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+      <c r="I20" t="n">
         <v>42700</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>42700</v>
+      </c>
+      <c r="L20" t="n">
         <v>42500</v>
       </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>41700</v>
       </c>
-      <c r="J20" t="n">
-        <v>41700</v>
-      </c>
-      <c r="K20" t="n">
-        <v>40500</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>40000</v>
       </c>
-      <c r="M20" t="n">
-        <v>42500</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10.82864260254467</v>
-      </c>
       <c r="O20" t="n">
+        <v>44000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>115.4700538379455</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.425129068146092</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.3542623837566327</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.1855505257844925</v>
+      </c>
+      <c r="T20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,33 +1734,48 @@
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" t="n">
         <v>42700</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>42700</v>
       </c>
-      <c r="I21" t="n">
+      <c r="L21" t="n">
+        <v>42700</v>
+      </c>
+      <c r="M21" t="n">
         <v>42500</v>
       </c>
-      <c r="J21" t="n">
-        <v>41700</v>
-      </c>
-      <c r="K21" t="n">
-        <v>41700</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>40500</v>
       </c>
-      <c r="M21" t="n">
-        <v>42700</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10.84388619355352</v>
-      </c>
       <c r="O21" t="n">
+        <v>43000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.425129068146092</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.3542623837566327</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-0.174802154302597</v>
+      </c>
+      <c r="T21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1421,33 +1796,48 @@
         <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>42700</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>42700</v>
+        <v>23</v>
       </c>
       <c r="I22" t="n">
         <v>42700</v>
       </c>
       <c r="J22" t="n">
-        <v>42500</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="L22" t="n">
-        <v>41700</v>
+        <v>42700</v>
       </c>
       <c r="M22" t="n">
         <v>42700</v>
       </c>
       <c r="N22" t="n">
-        <v>10.84388619355352</v>
+        <v>41700</v>
       </c>
       <c r="O22" t="n">
+        <v>42000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>57.73502691900021</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.3977013863302151</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.3348290203735929</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.170132577419281</v>
+      </c>
+      <c r="T22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1468,33 +1858,48 @@
         <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="n">
         <v>42800</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>42800</v>
+      </c>
+      <c r="L23" t="n">
         <v>42700</v>
-      </c>
-      <c r="I23" t="n">
-        <v>42700</v>
-      </c>
-      <c r="J23" t="n">
-        <v>42700</v>
-      </c>
-      <c r="K23" t="n">
-        <v>42500</v>
-      </c>
-      <c r="L23" t="n">
-        <v>41700</v>
       </c>
       <c r="M23" t="n">
         <v>42700</v>
       </c>
       <c r="N23" t="n">
-        <v>10.84388619355352</v>
+        <v>41700</v>
       </c>
       <c r="O23" t="n">
+        <v>41500</v>
+      </c>
+      <c r="P23" t="n">
+        <v>57.73502691900021</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.3977013863302151</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.3348290203735929</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.2053119540214539</v>
+      </c>
+      <c r="T23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1515,33 +1920,48 @@
         <v>6</v>
       </c>
       <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>42800</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K24" t="n">
         <v>42800</v>
       </c>
-      <c r="I24" t="n">
+      <c r="L24" t="n">
+        <v>42800</v>
+      </c>
+      <c r="M24" t="n">
         <v>42700</v>
       </c>
-      <c r="J24" t="n">
-        <v>42700</v>
-      </c>
-      <c r="K24" t="n">
-        <v>42700</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>42500</v>
       </c>
-      <c r="M24" t="n">
-        <v>42800</v>
-      </c>
-      <c r="N24" t="n">
-        <v>10.86029332460328</v>
-      </c>
       <c r="O24" t="n">
+        <v>41000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>981.4954576223671</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.06856920453969226</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.06632056161578442</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.2756583988666534</v>
+      </c>
+      <c r="T24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,33 +1982,48 @@
         <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" t="n">
         <v>44500</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>44500</v>
+      </c>
+      <c r="L25" t="n">
         <v>42800</v>
-      </c>
-      <c r="I25" t="n">
-        <v>42800</v>
-      </c>
-      <c r="J25" t="n">
-        <v>42700</v>
-      </c>
-      <c r="K25" t="n">
-        <v>42700</v>
-      </c>
-      <c r="L25" t="n">
-        <v>42700</v>
       </c>
       <c r="M25" t="n">
         <v>42800</v>
       </c>
       <c r="N25" t="n">
-        <v>10.86029332460328</v>
+        <v>42700</v>
       </c>
       <c r="O25" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>981.4954576223671</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.06856920453969226</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.06632056161578442</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-0.2649101614952087</v>
+      </c>
+      <c r="T25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,33 +2044,48 @@
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>20</v>
+      </c>
+      <c r="I26" t="n">
         <v>44500</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K26" t="n">
         <v>44500</v>
       </c>
-      <c r="I26" t="n">
+      <c r="L26" t="n">
+        <v>44500</v>
+      </c>
+      <c r="M26" t="n">
         <v>42800</v>
       </c>
-      <c r="J26" t="n">
-        <v>42800</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>42700</v>
       </c>
-      <c r="L26" t="n">
-        <v>42700</v>
-      </c>
-      <c r="M26" t="n">
-        <v>44500</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10.8802599836342</v>
-      </c>
       <c r="O26" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>866.0254037844412</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4799844317778458</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.3920315686516748</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.2649101614952087</v>
+      </c>
+      <c r="T26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,33 +2106,48 @@
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
+        <v>27</v>
+      </c>
+      <c r="I27" t="n">
+        <v>46000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="K27" t="n">
+        <v>46000</v>
+      </c>
+      <c r="L27" t="n">
         <v>44500</v>
-      </c>
-      <c r="I27" t="n">
-        <v>44500</v>
-      </c>
-      <c r="J27" t="n">
-        <v>42800</v>
-      </c>
-      <c r="K27" t="n">
-        <v>42800</v>
-      </c>
-      <c r="L27" t="n">
-        <v>42700</v>
       </c>
       <c r="M27" t="n">
         <v>44500</v>
       </c>
       <c r="N27" t="n">
-        <v>10.8802599836342</v>
+        <v>42700</v>
       </c>
       <c r="O27" t="n">
+        <v>40500</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2400.694344004114</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.357670249885907</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.8576739492004684</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-0.277699887752533</v>
+      </c>
+      <c r="T27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1703,33 +2168,48 @@
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
         <v>49200</v>
       </c>
-      <c r="H28" t="n">
-        <v>46000</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49200</v>
+      </c>
+      <c r="L28" t="n">
+        <v>46000</v>
+      </c>
+      <c r="M28" t="n">
         <v>44500</v>
       </c>
-      <c r="J28" t="n">
-        <v>44500</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>42800</v>
       </c>
-      <c r="L28" t="n">
-        <v>42800</v>
-      </c>
-      <c r="M28" t="n">
-        <v>46000</v>
-      </c>
-      <c r="N28" t="n">
-        <v>10.8802599836342</v>
-      </c>
       <c r="O28" t="n">
+        <v>41700</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3868.246803570493</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.591915931600367</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.278685745823185</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-0.2877718210220337</v>
+      </c>
+      <c r="T28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1750,33 +2230,48 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n">
         <v>53700</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K29" t="n">
+        <v>53700</v>
+      </c>
+      <c r="L29" t="n">
         <v>49200</v>
       </c>
-      <c r="I29" t="n">
-        <v>46000</v>
-      </c>
-      <c r="J29" t="n">
-        <v>44500</v>
-      </c>
-      <c r="K29" t="n">
-        <v>44500</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
+        <v>46000</v>
+      </c>
+      <c r="N29" t="n">
         <v>42800</v>
       </c>
-      <c r="M29" t="n">
-        <v>49200</v>
-      </c>
-      <c r="N29" t="n">
-        <v>10.92417156457048</v>
-      </c>
       <c r="O29" t="n">
+        <v>41700</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3244.99614791759</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.085614204286151</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.407472073016037</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.2715334594249725</v>
+      </c>
+      <c r="T29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/predicted_procurement.xlsx
+++ b/predicted_procurement.xlsx
@@ -475,7 +475,7 @@
         <v>46000</v>
       </c>
       <c r="D2" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>46000</v>
       </c>
       <c r="D3" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>46000</v>
       </c>
       <c r="D4" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>45500</v>
       </c>
       <c r="D5" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>45500</v>
       </c>
       <c r="D6" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -560,10 +560,10 @@
         <v>45000</v>
       </c>
       <c r="D7" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -577,10 +577,10 @@
         <v>44000</v>
       </c>
       <c r="D8" t="n">
-        <v>44090.84689762392</v>
+        <v>43645.50813233807</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -594,7 +594,7 @@
         <v>43000</v>
       </c>
       <c r="D9" t="n">
-        <v>43003.25072633375</v>
+        <v>43047.00790185571</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -611,7 +611,7 @@
         <v>42000</v>
       </c>
       <c r="D10" t="n">
-        <v>42067.77833002037</v>
+        <v>41601.51095382852</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
         <v>41500</v>
       </c>
       <c r="D11" t="n">
-        <v>41645.93332916823</v>
+        <v>41540.0920338838</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -645,7 +645,7 @@
         <v>41000</v>
       </c>
       <c r="D12" t="n">
-        <v>41668.27328367659</v>
+        <v>41540.0920338838</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -662,7 +662,7 @@
         <v>40000</v>
       </c>
       <c r="D13" t="n">
-        <v>40200.31056383922</v>
+        <v>40111.82424652662</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -679,7 +679,7 @@
         <v>40000</v>
       </c>
       <c r="D14" t="n">
-        <v>40200.31056383922</v>
+        <v>40111.82424652662</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -696,7 +696,7 @@
         <v>40500</v>
       </c>
       <c r="D15" t="n">
-        <v>40584.5961637352</v>
+        <v>40533.39100924209</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>41700</v>
       </c>
       <c r="D16" t="n">
-        <v>41645.93332916823</v>
+        <v>41540.0920338838</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -730,7 +730,7 @@
         <v>41700</v>
       </c>
       <c r="D17" t="n">
-        <v>41645.93332916823</v>
+        <v>41540.0920338838</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>42500</v>
       </c>
       <c r="D18" t="n">
-        <v>42205.53299539537</v>
+        <v>42105.7437090617</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>42700</v>
       </c>
       <c r="D19" t="n">
-        <v>42390.58691013519</v>
+        <v>42357.08712897838</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -781,7 +781,7 @@
         <v>42700</v>
       </c>
       <c r="D20" t="n">
-        <v>42390.58691013519</v>
+        <v>42357.08712897838</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -798,7 +798,7 @@
         <v>42700</v>
       </c>
       <c r="D21" t="n">
-        <v>42390.58691013519</v>
+        <v>42357.08712897838</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>42800</v>
       </c>
       <c r="D22" t="n">
-        <v>43003.25072633375</v>
+        <v>43047.00790185571</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -832,7 +832,7 @@
         <v>42800</v>
       </c>
       <c r="D23" t="n">
-        <v>43003.25072633375</v>
+        <v>43047.00790185571</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -849,7 +849,7 @@
         <v>44500</v>
       </c>
       <c r="D24" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -866,7 +866,7 @@
         <v>44500</v>
       </c>
       <c r="D25" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>46000</v>
       </c>
       <c r="D26" t="n">
-        <v>44498.90546467144</v>
+        <v>43917.09737268041</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -900,7 +900,7 @@
         <v>49200</v>
       </c>
       <c r="D27" t="n">
-        <v>50561.32577710558</v>
+        <v>50382.28451834183</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>53700</v>
       </c>
       <c r="D28" t="n">
-        <v>53837.18541039216</v>
+        <v>54418.74091051521</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
